--- a/data/input/absenteeism_data_34.xlsx
+++ b/data/input/absenteeism_data_34.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9327</v>
+        <v>38137</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clara da Paz</t>
+          <t>Srta. Amanda Costa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45099</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>5563.48</v>
+        <v>11661.97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66442</v>
+        <v>12116</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eduardo Cardoso</t>
+          <t>Sra. Camila Caldeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45104</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>4181.33</v>
+        <v>11811.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>60385</v>
+        <v>24974</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexia Rodrigues</t>
+          <t>Samuel Ramos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45106</v>
       </c>
       <c r="G4" t="n">
-        <v>8570.120000000001</v>
+        <v>10282.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3590</v>
+        <v>97691</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Felipe Lima</t>
+          <t>Carlos Eduardo Silva</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45098</v>
+        <v>45086</v>
       </c>
       <c r="G5" t="n">
-        <v>2747.29</v>
+        <v>6091.69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67742</v>
+        <v>34062</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dra. Mariane Barros</t>
+          <t>Eduarda Nunes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,56 +610,56 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>3037.72</v>
+        <v>9358.879999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98325</v>
+        <v>92257</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Enzo Sales</t>
+          <t>Marcelo Monteiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45079</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>10342.87</v>
+        <v>7000.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>90075</v>
+        <v>42448</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alexia Almeida</t>
+          <t>Mariane Jesus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45095</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>10220.77</v>
+        <v>4542.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65176</v>
+        <v>98401</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Emanuella Rodrigues</t>
+          <t>Lucas Vieira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>10592.42</v>
+        <v>8036.85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>46571</v>
+        <v>73856</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nicolas Sales</t>
+          <t>Ana Clara da Mota</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45092</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>4848.72</v>
+        <v>5535.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>79865</v>
+        <v>96092</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nicole da Conceição</t>
+          <t>Luiz Otávio Moura</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45102</v>
       </c>
       <c r="G11" t="n">
-        <v>5371.03</v>
+        <v>7476.26</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_34.xlsx
+++ b/data/input/absenteeism_data_34.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>38137</v>
+        <v>55552</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Srta. Amanda Costa</t>
+          <t>Thiago da Rocha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,113 +490,113 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>11661.97</v>
+        <v>4447.69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12116</v>
+        <v>15037</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sra. Camila Caldeira</t>
+          <t>Rebeca Pereira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>11811.06</v>
+        <v>12063.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24974</v>
+        <v>36099</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Samuel Ramos</t>
+          <t>Benício Jesus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>10282.7</v>
+        <v>10824.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97691</v>
+        <v>92622</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Silva</t>
+          <t>Dra. Juliana Moraes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45086</v>
       </c>
       <c r="G5" t="n">
-        <v>6091.69</v>
+        <v>2752.56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>34062</v>
+        <v>56596</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eduarda Nunes</t>
+          <t>Pietra Alves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,31 +606,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>9358.879999999999</v>
+        <v>10656.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>92257</v>
+        <v>24010</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marcelo Monteiro</t>
+          <t>Dra. Emanuelly Peixoto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,56 +639,56 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>7000.36</v>
+        <v>12229.68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>42448</v>
+        <v>2187</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mariane Jesus</t>
+          <t>Dr. Kaique Carvalho</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45081</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>4542.52</v>
+        <v>8339.41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98401</v>
+        <v>41534</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lucas Vieira</t>
+          <t>Maysa da Luz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45083</v>
       </c>
       <c r="G9" t="n">
-        <v>8036.85</v>
+        <v>7243.31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73856</v>
+        <v>22854</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Clara da Mota</t>
+          <t>Francisco Rezende</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45098</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>5535.17</v>
+        <v>8551.860000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96092</v>
+        <v>74171</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiz Otávio Moura</t>
+          <t>Erick Sales</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45102</v>
+        <v>45088</v>
       </c>
       <c r="G11" t="n">
-        <v>7476.26</v>
+        <v>6787.27</v>
       </c>
     </row>
   </sheetData>
